--- a/new-stats/ael-limassol.xlsx
+++ b/new-stats/ael-limassol.xlsx
@@ -1056,22 +1056,58 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>APOEL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AEL Limassol</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>

--- a/new-stats/ael-limassol.xlsx
+++ b/new-stats/ael-limassol.xlsx
@@ -1110,22 +1110,58 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30/11/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AEL Limassol</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Apollon</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/ael-limassol.xlsx
+++ b/new-stats/ael-limassol.xlsx
@@ -1164,22 +1164,58 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Omonia Aradippou</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AEL Limassol</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/ael-limassol.xlsx
+++ b/new-stats/ael-limassol.xlsx
@@ -1218,22 +1218,58 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ol. Nicosia</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AEL Limassol</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/ael-limassol.xlsx
+++ b/new-stats/ael-limassol.xlsx
@@ -1272,22 +1272,58 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AEL Limassol</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AEK Larnaca</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
